--- a/Analysis/All java projects.xlsx
+++ b/Analysis/All java projects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10\Source\Repos\SOEN-7481-Fall-2018-Project\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B70F4D8-E4DF-4060-A5E2-6761137E450C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D2E182-E997-43D2-A0B9-787337FE9237}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Data" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Summary of Code Quality Data" sheetId="5" r:id="rId3"/>
     <sheet name="Productivity - Analysis Data" sheetId="6" r:id="rId4"/>
     <sheet name="Quality - Analysis Data" sheetId="8" r:id="rId5"/>
+    <sheet name="R1-Analysis" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Data'!$U$1:$U$79</definedName>
@@ -467,7 +468,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -509,8 +510,21 @@
       <color theme="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,8 +543,20 @@
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7B7B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -538,12 +564,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -579,6 +620,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -899,8 +949,8 @@
   </sheetPr>
   <dimension ref="A1:AH66"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -912,9 +962,10 @@
     <col min="13" max="13" width="16.140625" customWidth="1"/>
     <col min="18" max="18" width="9.7109375" customWidth="1"/>
     <col min="19" max="19" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -975,7 +1026,7 @@
       <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="21" t="s">
         <v>18</v>
       </c>
       <c r="V1" s="1" t="s">
@@ -994,7 +1045,7 @@
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
     </row>
-    <row r="2" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>833</v>
       </c>
@@ -1056,12 +1107,12 @@
       <c r="T2" s="5">
         <v>163</v>
       </c>
-      <c r="U2" s="4">
-        <v>0</v>
+      <c r="U2" s="22">
+        <v>1</v>
       </c>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>820</v>
       </c>
@@ -1123,7 +1174,7 @@
       <c r="T3" s="7">
         <v>179</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="23">
         <v>1</v>
       </c>
       <c r="V3" s="11"/>
@@ -1140,7 +1191,7 @@
       <c r="AG3" s="12"/>
       <c r="AH3" s="12"/>
     </row>
-    <row r="4" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>729</v>
       </c>
@@ -1202,7 +1253,7 @@
       <c r="T4" s="7">
         <v>233</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="23">
         <v>1</v>
       </c>
       <c r="V4" s="11"/>
@@ -1219,7 +1270,7 @@
       <c r="AG4" s="12"/>
       <c r="AH4" s="12"/>
     </row>
-    <row r="5" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>770</v>
       </c>
@@ -1281,8 +1332,8 @@
       <c r="T5" s="5">
         <v>240</v>
       </c>
-      <c r="U5" s="4">
-        <v>0</v>
+      <c r="U5" s="22">
+        <v>1</v>
       </c>
       <c r="V5" s="6"/>
       <c r="W5" s="13"/>
@@ -1298,7 +1349,7 @@
       <c r="AG5" s="13"/>
       <c r="AH5" s="13"/>
     </row>
-    <row r="6" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>848</v>
       </c>
@@ -1360,7 +1411,7 @@
       <c r="T6" s="14">
         <v>112</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="23">
         <v>1</v>
       </c>
       <c r="V6" s="11"/>
@@ -1377,7 +1428,7 @@
       <c r="AG6" s="12"/>
       <c r="AH6" s="12"/>
     </row>
-    <row r="7" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>582</v>
       </c>
@@ -1439,7 +1490,7 @@
       <c r="T7" s="14">
         <v>77</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="23">
         <v>1</v>
       </c>
       <c r="V7" s="11"/>
@@ -1456,7 +1507,7 @@
       <c r="AG7" s="16"/>
       <c r="AH7" s="16"/>
     </row>
-    <row r="8" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>682</v>
       </c>
@@ -1518,7 +1569,7 @@
       <c r="T8" s="14">
         <v>523</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U8" s="23">
         <v>1</v>
       </c>
       <c r="V8" s="11"/>
@@ -1535,7 +1586,7 @@
       <c r="AG8" s="12"/>
       <c r="AH8" s="12"/>
     </row>
-    <row r="9" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>529</v>
       </c>
@@ -1597,7 +1648,7 @@
       <c r="T9" s="14">
         <v>123</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="23">
         <v>1</v>
       </c>
       <c r="V9" s="11"/>
@@ -1614,7 +1665,7 @@
       <c r="AG9" s="12"/>
       <c r="AH9" s="12"/>
     </row>
-    <row r="10" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>654</v>
       </c>
@@ -1676,7 +1727,7 @@
       <c r="T10" s="14">
         <v>205</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="23">
         <v>1</v>
       </c>
       <c r="V10" s="11"/>
@@ -1693,7 +1744,7 @@
       <c r="AG10" s="12"/>
       <c r="AH10" s="12"/>
     </row>
-    <row r="11" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>218</v>
       </c>
@@ -1755,7 +1806,7 @@
       <c r="T11" s="14">
         <v>362</v>
       </c>
-      <c r="U11" s="7">
+      <c r="U11" s="23">
         <v>1</v>
       </c>
       <c r="V11" s="11"/>
@@ -1772,7 +1823,7 @@
       <c r="AG11" s="12"/>
       <c r="AH11" s="12"/>
     </row>
-    <row r="12" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>303</v>
       </c>
@@ -1834,7 +1885,7 @@
       <c r="T12" s="14">
         <v>85</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="23">
         <v>1</v>
       </c>
       <c r="V12" s="11"/>
@@ -1851,7 +1902,7 @@
       <c r="AG12" s="12"/>
       <c r="AH12" s="12"/>
     </row>
-    <row r="13" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>840</v>
       </c>
@@ -1913,12 +1964,12 @@
       <c r="T13" s="5">
         <v>29</v>
       </c>
-      <c r="U13" s="4">
-        <v>0</v>
+      <c r="U13" s="22">
+        <v>1</v>
       </c>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>854</v>
       </c>
@@ -1980,7 +2031,7 @@
       <c r="T14" s="14">
         <v>125</v>
       </c>
-      <c r="U14" s="7">
+      <c r="U14" s="23">
         <v>1</v>
       </c>
       <c r="V14" s="11"/>
@@ -1997,7 +2048,7 @@
       <c r="AG14" s="12"/>
       <c r="AH14" s="12"/>
     </row>
-    <row r="15" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>915</v>
       </c>
@@ -2059,7 +2110,7 @@
       <c r="T15" s="14">
         <v>78</v>
       </c>
-      <c r="U15" s="7">
+      <c r="U15" s="23">
         <v>1</v>
       </c>
       <c r="V15" s="11"/>
@@ -2076,7 +2127,7 @@
       <c r="AG15" s="12"/>
       <c r="AH15" s="12"/>
     </row>
-    <row r="16" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>652</v>
       </c>
@@ -2138,8 +2189,8 @@
       <c r="T16" s="5">
         <v>217</v>
       </c>
-      <c r="U16" s="4">
-        <v>0</v>
+      <c r="U16" s="22">
+        <v>1</v>
       </c>
       <c r="V16" s="6"/>
       <c r="W16" s="12"/>
@@ -2155,7 +2206,7 @@
       <c r="AG16" s="12"/>
       <c r="AH16" s="12"/>
     </row>
-    <row r="17" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>815</v>
       </c>
@@ -2217,7 +2268,7 @@
       <c r="T17" s="14">
         <v>39</v>
       </c>
-      <c r="U17" s="7">
+      <c r="U17" s="23">
         <v>1</v>
       </c>
       <c r="V17" s="11"/>
@@ -2234,7 +2285,7 @@
       <c r="AG17" s="12"/>
       <c r="AH17" s="12"/>
     </row>
-    <row r="18" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>266</v>
       </c>
@@ -2296,8 +2347,8 @@
       <c r="T18" s="5">
         <v>152</v>
       </c>
-      <c r="U18" s="4">
-        <v>0</v>
+      <c r="U18" s="22">
+        <v>1</v>
       </c>
       <c r="V18" s="6"/>
       <c r="W18" s="13"/>
@@ -2313,7 +2364,7 @@
       <c r="AG18" s="13"/>
       <c r="AH18" s="13"/>
     </row>
-    <row r="19" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>380</v>
       </c>
@@ -2375,7 +2426,7 @@
       <c r="T19" s="14">
         <v>272</v>
       </c>
-      <c r="U19" s="7">
+      <c r="U19" s="23">
         <v>1</v>
       </c>
       <c r="V19" s="11"/>
@@ -2392,7 +2443,7 @@
       <c r="AG19" s="12"/>
       <c r="AH19" s="12"/>
     </row>
-    <row r="20" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>235</v>
       </c>
@@ -2454,7 +2505,7 @@
       <c r="T20" s="14">
         <v>564</v>
       </c>
-      <c r="U20" s="7">
+      <c r="U20" s="23">
         <v>1</v>
       </c>
       <c r="V20" s="11"/>
@@ -2471,7 +2522,7 @@
       <c r="AG20" s="12"/>
       <c r="AH20" s="12"/>
     </row>
-    <row r="21" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>256</v>
       </c>
@@ -2533,12 +2584,12 @@
       <c r="T21" s="5">
         <v>45</v>
       </c>
-      <c r="U21" s="4">
-        <v>0</v>
+      <c r="U21" s="22">
+        <v>1</v>
       </c>
       <c r="V21" s="6"/>
     </row>
-    <row r="22" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>35</v>
       </c>
@@ -2600,7 +2651,7 @@
       <c r="T22" s="5">
         <v>4893</v>
       </c>
-      <c r="U22" s="4">
+      <c r="U22" s="22">
         <v>0</v>
       </c>
       <c r="V22" s="6"/>
@@ -2617,7 +2668,7 @@
       <c r="AG22" s="13"/>
       <c r="AH22" s="13"/>
     </row>
-    <row r="23" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>251</v>
       </c>
@@ -2679,7 +2730,7 @@
       <c r="T23" s="14">
         <v>499</v>
       </c>
-      <c r="U23" s="7">
+      <c r="U23" s="23">
         <v>1</v>
       </c>
       <c r="V23" s="11"/>
@@ -2696,7 +2747,7 @@
       <c r="AG23" s="12"/>
       <c r="AH23" s="12"/>
     </row>
-    <row r="24" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>651</v>
       </c>
@@ -2758,7 +2809,7 @@
       <c r="T24" s="14">
         <v>123</v>
       </c>
-      <c r="U24" s="7">
+      <c r="U24" s="23">
         <v>1</v>
       </c>
       <c r="V24" s="11"/>
@@ -2775,7 +2826,7 @@
       <c r="AG24" s="12"/>
       <c r="AH24" s="12"/>
     </row>
-    <row r="25" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>776</v>
       </c>
@@ -2837,12 +2888,12 @@
       <c r="T25" s="5">
         <v>120</v>
       </c>
-      <c r="U25" s="4">
-        <v>0</v>
+      <c r="U25" s="22">
+        <v>1</v>
       </c>
       <c r="V25" s="6"/>
     </row>
-    <row r="26" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>192</v>
       </c>
@@ -2904,7 +2955,7 @@
       <c r="T26" s="14">
         <v>490</v>
       </c>
-      <c r="U26" s="7">
+      <c r="U26" s="23">
         <v>1</v>
       </c>
       <c r="V26" s="11"/>
@@ -2921,7 +2972,7 @@
       <c r="AG26" s="12"/>
       <c r="AH26" s="12"/>
     </row>
-    <row r="27" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>258</v>
       </c>
@@ -2983,12 +3034,12 @@
       <c r="T27" s="5">
         <v>342</v>
       </c>
-      <c r="U27" s="4">
-        <v>0</v>
+      <c r="U27" s="22">
+        <v>1</v>
       </c>
       <c r="V27" s="6"/>
     </row>
-    <row r="28" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>540</v>
       </c>
@@ -3051,7 +3102,7 @@
       <c r="T28" s="14">
         <v>844</v>
       </c>
-      <c r="U28" s="7">
+      <c r="U28" s="23">
         <v>1</v>
       </c>
       <c r="V28" s="11"/>
@@ -3068,7 +3119,7 @@
       <c r="AG28" s="16"/>
       <c r="AH28" s="16"/>
     </row>
-    <row r="29" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>373</v>
       </c>
@@ -3130,7 +3181,7 @@
       <c r="T29" s="14">
         <v>299</v>
       </c>
-      <c r="U29" s="7">
+      <c r="U29" s="23">
         <v>1</v>
       </c>
       <c r="V29" s="11"/>
@@ -3147,7 +3198,7 @@
       <c r="AG29" s="16"/>
       <c r="AH29" s="16"/>
     </row>
-    <row r="30" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>585</v>
       </c>
@@ -3209,12 +3260,12 @@
       <c r="T30" s="5">
         <v>65</v>
       </c>
-      <c r="U30" s="4">
-        <v>0</v>
+      <c r="U30" s="22">
+        <v>1</v>
       </c>
       <c r="V30" s="6"/>
     </row>
-    <row r="31" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>617</v>
       </c>
@@ -3276,8 +3327,8 @@
       <c r="T31" s="5">
         <v>28</v>
       </c>
-      <c r="U31" s="4">
-        <v>0</v>
+      <c r="U31" s="22">
+        <v>1</v>
       </c>
       <c r="V31" s="6"/>
       <c r="W31" s="13"/>
@@ -3293,7 +3344,7 @@
       <c r="AG31" s="13"/>
       <c r="AH31" s="13"/>
     </row>
-    <row r="32" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>626</v>
       </c>
@@ -3355,7 +3406,7 @@
       <c r="T32" s="14">
         <v>179</v>
       </c>
-      <c r="U32" s="7">
+      <c r="U32" s="23">
         <v>1</v>
       </c>
       <c r="V32" s="11"/>
@@ -3372,7 +3423,7 @@
       <c r="AG32" s="12"/>
       <c r="AH32" s="12"/>
     </row>
-    <row r="33" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>877</v>
       </c>
@@ -3434,7 +3485,7 @@
       <c r="T33" s="14">
         <v>31</v>
       </c>
-      <c r="U33" s="7">
+      <c r="U33" s="23">
         <v>1</v>
       </c>
       <c r="V33" s="11"/>
@@ -3451,7 +3502,7 @@
       <c r="AG33" s="12"/>
       <c r="AH33" s="12"/>
     </row>
-    <row r="34" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>421</v>
       </c>
@@ -3513,7 +3564,7 @@
       <c r="T34" s="14">
         <v>98</v>
       </c>
-      <c r="U34" s="7">
+      <c r="U34" s="23">
         <v>1</v>
       </c>
       <c r="V34" s="11"/>
@@ -3530,7 +3581,7 @@
       <c r="AG34" s="12"/>
       <c r="AH34" s="12"/>
     </row>
-    <row r="35" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>662</v>
       </c>
@@ -3592,7 +3643,7 @@
       <c r="T35" s="14">
         <v>264</v>
       </c>
-      <c r="U35" s="7">
+      <c r="U35" s="23">
         <v>1</v>
       </c>
       <c r="V35" s="11"/>
@@ -3609,7 +3660,7 @@
       <c r="AG35" s="12"/>
       <c r="AH35" s="12"/>
     </row>
-    <row r="36" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>387</v>
       </c>
@@ -3671,7 +3722,7 @@
       <c r="T36" s="14">
         <v>384</v>
       </c>
-      <c r="U36" s="7">
+      <c r="U36" s="23">
         <v>1</v>
       </c>
       <c r="V36" s="11"/>
@@ -3688,7 +3739,7 @@
       <c r="AG36" s="12"/>
       <c r="AH36" s="12"/>
     </row>
-    <row r="37" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>628</v>
       </c>
@@ -3750,12 +3801,12 @@
       <c r="T37" s="5">
         <v>18</v>
       </c>
-      <c r="U37" s="4">
-        <v>0</v>
+      <c r="U37" s="22">
+        <v>1</v>
       </c>
       <c r="V37" s="6"/>
     </row>
-    <row r="38" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>899</v>
       </c>
@@ -3817,7 +3868,7 @@
       <c r="T38" s="14">
         <v>138</v>
       </c>
-      <c r="U38" s="7">
+      <c r="U38" s="23">
         <v>1</v>
       </c>
       <c r="V38" s="11"/>
@@ -3834,7 +3885,7 @@
       <c r="AG38" s="12"/>
       <c r="AH38" s="12"/>
     </row>
-    <row r="39" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>457</v>
       </c>
@@ -3896,7 +3947,7 @@
       <c r="T39" s="14">
         <v>146</v>
       </c>
-      <c r="U39" s="7">
+      <c r="U39" s="23">
         <v>1</v>
       </c>
       <c r="V39" s="11"/>
@@ -3913,7 +3964,7 @@
       <c r="AG39" s="12"/>
       <c r="AH39" s="12"/>
     </row>
-    <row r="40" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>825</v>
       </c>
@@ -3975,7 +4026,7 @@
       <c r="T40" s="14">
         <v>122</v>
       </c>
-      <c r="U40" s="7">
+      <c r="U40" s="23">
         <v>1</v>
       </c>
       <c r="V40" s="11"/>
@@ -3992,7 +4043,7 @@
       <c r="AG40" s="12"/>
       <c r="AH40" s="12"/>
     </row>
-    <row r="41" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>469</v>
       </c>
@@ -4054,12 +4105,12 @@
       <c r="T41" s="5">
         <v>26</v>
       </c>
-      <c r="U41" s="4">
-        <v>0</v>
+      <c r="U41" s="22">
+        <v>1</v>
       </c>
       <c r="V41" s="6"/>
     </row>
-    <row r="42" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>137</v>
       </c>
@@ -4121,7 +4172,7 @@
       <c r="T42" s="14">
         <v>484</v>
       </c>
-      <c r="U42" s="7">
+      <c r="U42" s="23">
         <v>1</v>
       </c>
       <c r="V42" s="11"/>
@@ -4138,7 +4189,7 @@
       <c r="AG42" s="12"/>
       <c r="AH42" s="12"/>
     </row>
-    <row r="43" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>214</v>
       </c>
@@ -4200,7 +4251,7 @@
       <c r="T43" s="14">
         <v>123</v>
       </c>
-      <c r="U43" s="7">
+      <c r="U43" s="23">
         <v>1</v>
       </c>
       <c r="V43" s="11"/>
@@ -4217,7 +4268,7 @@
       <c r="AG43" s="12"/>
       <c r="AH43" s="12"/>
     </row>
-    <row r="44" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>130</v>
       </c>
@@ -4279,7 +4330,7 @@
       <c r="T44" s="5">
         <v>3529</v>
       </c>
-      <c r="U44" s="4">
+      <c r="U44" s="22">
         <v>0</v>
       </c>
       <c r="V44" s="6"/>
@@ -4296,7 +4347,7 @@
       <c r="AG44" s="13"/>
       <c r="AH44" s="13"/>
     </row>
-    <row r="45" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>208</v>
       </c>
@@ -4358,7 +4409,7 @@
       <c r="T45" s="14">
         <v>351</v>
       </c>
-      <c r="U45" s="7">
+      <c r="U45" s="23">
         <v>1</v>
       </c>
       <c r="V45" s="11"/>
@@ -4375,7 +4426,7 @@
       <c r="AG45" s="16"/>
       <c r="AH45" s="16"/>
     </row>
-    <row r="46" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>465</v>
       </c>
@@ -4437,8 +4488,8 @@
       <c r="T46" s="5">
         <v>32</v>
       </c>
-      <c r="U46" s="4">
-        <v>0</v>
+      <c r="U46" s="22">
+        <v>1</v>
       </c>
       <c r="V46" s="6"/>
       <c r="W46" s="13"/>
@@ -4454,7 +4505,7 @@
       <c r="AG46" s="13"/>
       <c r="AH46" s="13"/>
     </row>
-    <row r="47" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>680</v>
       </c>
@@ -4516,7 +4567,7 @@
       <c r="T47" s="14">
         <v>168</v>
       </c>
-      <c r="U47" s="7">
+      <c r="U47" s="23">
         <v>1</v>
       </c>
       <c r="V47" s="11"/>
@@ -4533,7 +4584,7 @@
       <c r="AG47" s="12"/>
       <c r="AH47" s="12"/>
     </row>
-    <row r="48" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>68</v>
       </c>
@@ -4595,7 +4646,7 @@
       <c r="T48" s="14">
         <v>2827</v>
       </c>
-      <c r="U48" s="7">
+      <c r="U48" s="23">
         <v>1</v>
       </c>
       <c r="V48" s="11"/>
@@ -4612,7 +4663,7 @@
       <c r="AG48" s="16"/>
       <c r="AH48" s="16"/>
     </row>
-    <row r="49" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>598</v>
       </c>
@@ -4674,7 +4725,7 @@
       <c r="T49" s="14">
         <v>246</v>
       </c>
-      <c r="U49" s="7">
+      <c r="U49" s="23">
         <v>1</v>
       </c>
       <c r="V49" s="11"/>
@@ -4691,7 +4742,7 @@
       <c r="AG49" s="12"/>
       <c r="AH49" s="12"/>
     </row>
-    <row r="50" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>700</v>
       </c>
@@ -4753,7 +4804,7 @@
       <c r="T50" s="14">
         <v>73</v>
       </c>
-      <c r="U50" s="7">
+      <c r="U50" s="23">
         <v>1</v>
       </c>
       <c r="V50" s="11"/>
@@ -4770,7 +4821,7 @@
       <c r="AG50" s="12"/>
       <c r="AH50" s="12"/>
     </row>
-    <row r="51" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>878</v>
       </c>
@@ -4832,7 +4883,7 @@
       <c r="T51" s="14">
         <v>247</v>
       </c>
-      <c r="U51" s="7">
+      <c r="U51" s="23">
         <v>1</v>
       </c>
       <c r="V51" s="11"/>
@@ -4849,7 +4900,7 @@
       <c r="AG51" s="12"/>
       <c r="AH51" s="12"/>
     </row>
-    <row r="52" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>712</v>
       </c>
@@ -4911,12 +4962,12 @@
       <c r="T52" s="5">
         <v>22</v>
       </c>
-      <c r="U52" s="4">
-        <v>0</v>
+      <c r="U52" s="22">
+        <v>1</v>
       </c>
       <c r="V52" s="6"/>
     </row>
-    <row r="53" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>396</v>
       </c>
@@ -4978,7 +5029,7 @@
       <c r="T53" s="14">
         <v>130</v>
       </c>
-      <c r="U53" s="7">
+      <c r="U53" s="23">
         <v>1</v>
       </c>
       <c r="V53" s="11"/>
@@ -4995,7 +5046,7 @@
       <c r="AG53" s="12"/>
       <c r="AH53" s="12"/>
     </row>
-    <row r="54" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>499</v>
       </c>
@@ -5057,12 +5108,12 @@
       <c r="T54" s="5">
         <v>302</v>
       </c>
-      <c r="U54" s="4">
-        <v>0</v>
+      <c r="U54" s="22">
+        <v>1</v>
       </c>
       <c r="V54" s="6"/>
     </row>
-    <row r="55" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>562</v>
       </c>
@@ -5124,7 +5175,7 @@
       <c r="T55" s="14">
         <v>1007</v>
       </c>
-      <c r="U55" s="7">
+      <c r="U55" s="23">
         <v>1</v>
       </c>
       <c r="V55" s="11"/>
@@ -5141,7 +5192,7 @@
       <c r="AG55" s="12"/>
       <c r="AH55" s="12"/>
     </row>
-    <row r="56" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>410</v>
       </c>
@@ -5203,12 +5254,12 @@
       <c r="T56" s="5">
         <v>309</v>
       </c>
-      <c r="U56" s="4">
-        <v>0</v>
+      <c r="U56" s="22">
+        <v>1</v>
       </c>
       <c r="V56" s="6"/>
     </row>
-    <row r="57" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>295</v>
       </c>
@@ -5270,7 +5321,7 @@
       <c r="T57" s="14">
         <v>92</v>
       </c>
-      <c r="U57" s="7">
+      <c r="U57" s="23">
         <v>1</v>
       </c>
       <c r="V57" s="11"/>
@@ -5287,7 +5338,7 @@
       <c r="AG57" s="12"/>
       <c r="AH57" s="12"/>
     </row>
-    <row r="58" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>475</v>
       </c>
@@ -5349,7 +5400,7 @@
       <c r="T58" s="5">
         <v>254</v>
       </c>
-      <c r="U58" s="4">
+      <c r="U58" s="22">
         <v>0</v>
       </c>
       <c r="V58" s="6"/>
@@ -5366,7 +5417,7 @@
       <c r="AG58" s="13"/>
       <c r="AH58" s="13"/>
     </row>
-    <row r="59" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>454</v>
       </c>
@@ -5428,7 +5479,7 @@
       <c r="T59" s="5">
         <v>195</v>
       </c>
-      <c r="U59" s="7">
+      <c r="U59" s="23">
         <v>1</v>
       </c>
       <c r="V59" s="11"/>
@@ -5445,7 +5496,7 @@
       <c r="AG59" s="12"/>
       <c r="AH59" s="12"/>
     </row>
-    <row r="60" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>290</v>
       </c>
@@ -5507,7 +5558,7 @@
       <c r="T60" s="5">
         <v>302</v>
       </c>
-      <c r="U60" s="7">
+      <c r="U60" s="23">
         <v>1</v>
       </c>
       <c r="V60" s="11"/>
@@ -5584,10 +5635,6 @@
         <f t="shared" si="1"/>
         <v>400.42372881355931</v>
       </c>
-      <c r="U62">
-        <f t="shared" si="1"/>
-        <v>0.67796610169491522</v>
-      </c>
     </row>
     <row r="63" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E63" t="s">
@@ -5649,10 +5696,6 @@
         <f t="shared" si="2"/>
         <v>179</v>
       </c>
-      <c r="U63">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="64" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E64" t="s">
@@ -5714,12 +5757,8 @@
         <f t="shared" si="3"/>
         <v>828.17683442753207</v>
       </c>
-      <c r="U64">
-        <f t="shared" si="3"/>
-        <v>0.47126674363748516</v>
-      </c>
-    </row>
-    <row r="65" spans="5:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E65" t="s">
         <v>121</v>
       </c>
@@ -5779,12 +5818,8 @@
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="U65">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="5:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E66" t="s">
         <v>122</v>
       </c>
@@ -5843,10 +5878,6 @@
       <c r="T66">
         <f t="shared" si="5"/>
         <v>4893</v>
-      </c>
-      <c r="U66">
-        <f t="shared" si="5"/>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6047,8 +6078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DC7524-68EC-4894-8764-78C599968DBD}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6057,13 +6088,14 @@
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" style="20" customWidth="1"/>
     <col min="10" max="10" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>129</v>
       </c>
@@ -6088,7 +6120,7 @@
       <c r="H1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="21" t="s">
         <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -6104,7 +6136,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>2</v>
       </c>
@@ -6132,8 +6164,8 @@
         <f>LOG(G2+0.5)</f>
         <v>4.4037294795798463</v>
       </c>
-      <c r="I2" s="4">
-        <v>0</v>
+      <c r="I2" s="22">
+        <v>1</v>
       </c>
       <c r="J2" s="20">
         <v>0</v>
@@ -6148,7 +6180,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>8</v>
       </c>
@@ -6176,7 +6208,7 @@
         <f t="shared" ref="H3:H60" si="2">LOG(G3+0.5)</f>
         <v>4.7214767311796226</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="23">
         <v>1</v>
       </c>
       <c r="J3" s="20">
@@ -6192,7 +6224,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>59</v>
       </c>
@@ -6220,7 +6252,7 @@
         <f t="shared" si="2"/>
         <v>4.6062469710257004</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="23">
         <v>1</v>
       </c>
       <c r="J4" s="20">
@@ -6236,7 +6268,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>10</v>
       </c>
@@ -6264,8 +6296,8 @@
         <f t="shared" si="2"/>
         <v>4.1964110994129902</v>
       </c>
-      <c r="I5" s="4">
-        <v>0</v>
+      <c r="I5" s="22">
+        <v>1</v>
       </c>
       <c r="J5" s="20">
         <v>129</v>
@@ -6280,7 +6312,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>4</v>
       </c>
@@ -6308,7 +6340,7 @@
         <f t="shared" si="2"/>
         <v>3.8685562776579321</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="23">
         <v>1</v>
       </c>
       <c r="J6" s="20">
@@ -6324,7 +6356,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>11</v>
       </c>
@@ -6352,7 +6384,7 @@
         <f t="shared" si="2"/>
         <v>4.5735619762242115</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="23">
         <v>1</v>
       </c>
       <c r="J7" s="20">
@@ -6368,7 +6400,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>3</v>
       </c>
@@ -6396,7 +6428,7 @@
         <f t="shared" si="2"/>
         <v>4.9538007521180152</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="23">
         <v>1</v>
       </c>
       <c r="J8" s="20">
@@ -6412,7 +6444,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>47</v>
       </c>
@@ -6440,7 +6472,7 @@
         <f t="shared" si="2"/>
         <v>4.6218459086689352</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="23">
         <v>1</v>
       </c>
       <c r="J9" s="20">
@@ -6456,7 +6488,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>15</v>
       </c>
@@ -6484,7 +6516,7 @@
         <f t="shared" si="2"/>
         <v>5.1508837937722136</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="23">
         <v>1</v>
       </c>
       <c r="J10" s="20">
@@ -6500,7 +6532,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>20</v>
       </c>
@@ -6528,7 +6560,7 @@
         <f t="shared" si="2"/>
         <v>5.1935294726947516</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="23">
         <v>1</v>
       </c>
       <c r="J11" s="20">
@@ -6544,7 +6576,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>19</v>
       </c>
@@ -6572,7 +6604,7 @@
         <f t="shared" si="2"/>
         <v>4.9873600955894197</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="23">
         <v>1</v>
       </c>
       <c r="J12" s="20">
@@ -6588,7 +6620,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>2</v>
       </c>
@@ -6616,8 +6648,8 @@
         <f t="shared" si="2"/>
         <v>3.9560483103025872</v>
       </c>
-      <c r="I13" s="4">
-        <v>0</v>
+      <c r="I13" s="22">
+        <v>1</v>
       </c>
       <c r="J13" s="20">
         <v>16</v>
@@ -6632,7 +6664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>42</v>
       </c>
@@ -6660,7 +6692,7 @@
         <f t="shared" si="2"/>
         <v>4.6379747876208697</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="23">
         <v>1</v>
       </c>
       <c r="J14" s="20">
@@ -6676,7 +6708,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>6</v>
       </c>
@@ -6704,7 +6736,7 @@
         <f t="shared" si="2"/>
         <v>4.2564892363931133</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="23">
         <v>1</v>
       </c>
       <c r="J15" s="20">
@@ -6720,7 +6752,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>46</v>
       </c>
@@ -6748,8 +6780,8 @@
         <f t="shared" si="2"/>
         <v>4.4432551622623979</v>
       </c>
-      <c r="I16" s="4">
-        <v>0</v>
+      <c r="I16" s="22">
+        <v>1</v>
       </c>
       <c r="J16" s="20">
         <v>129</v>
@@ -6764,7 +6796,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>25</v>
       </c>
@@ -6792,7 +6824,7 @@
         <f t="shared" si="2"/>
         <v>3.949072709400645</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="23">
         <v>1</v>
       </c>
       <c r="J17" s="20">
@@ -6808,7 +6840,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>13</v>
       </c>
@@ -6836,8 +6868,8 @@
         <f t="shared" si="2"/>
         <v>4.4168650843398742</v>
       </c>
-      <c r="I18" s="4">
-        <v>0</v>
+      <c r="I18" s="22">
+        <v>1</v>
       </c>
       <c r="J18" s="20">
         <v>35</v>
@@ -6852,7 +6884,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>14</v>
       </c>
@@ -6880,7 +6912,7 @@
         <f t="shared" si="2"/>
         <v>4.7129736183506896</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="23">
         <v>1</v>
       </c>
       <c r="J19" s="20">
@@ -6896,7 +6928,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>30</v>
       </c>
@@ -6924,7 +6956,7 @@
         <f t="shared" si="2"/>
         <v>5.2364503435129937</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="23">
         <v>1</v>
       </c>
       <c r="J20" s="20">
@@ -6940,7 +6972,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>10</v>
       </c>
@@ -6968,8 +7000,8 @@
         <f t="shared" si="2"/>
         <v>4.9269312264615399</v>
       </c>
-      <c r="I21" s="4">
-        <v>0</v>
+      <c r="I21" s="22">
+        <v>1</v>
       </c>
       <c r="J21" s="20">
         <v>1</v>
@@ -6984,7 +7016,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>67</v>
       </c>
@@ -7012,7 +7044,7 @@
         <f t="shared" si="2"/>
         <v>6.0956095273107245</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="22">
         <v>0</v>
       </c>
       <c r="J22" s="20">
@@ -7028,7 +7060,7 @@
         <v>4893</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>10</v>
       </c>
@@ -7056,7 +7088,7 @@
         <f t="shared" si="2"/>
         <v>4.6382545746997046</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="23">
         <v>1</v>
       </c>
       <c r="J23" s="20">
@@ -7072,7 +7104,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>12</v>
       </c>
@@ -7100,7 +7132,7 @@
         <f t="shared" si="2"/>
         <v>5.5462285500650781</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="23">
         <v>1</v>
       </c>
       <c r="J24" s="20">
@@ -7116,7 +7148,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>20</v>
       </c>
@@ -7144,8 +7176,8 @@
         <f t="shared" si="2"/>
         <v>4.4849472385026887</v>
       </c>
-      <c r="I25" s="4">
-        <v>0</v>
+      <c r="I25" s="22">
+        <v>1</v>
       </c>
       <c r="J25" s="20">
         <v>352</v>
@@ -7160,7 +7192,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>30</v>
       </c>
@@ -7188,7 +7220,7 @@
         <f t="shared" si="2"/>
         <v>5.8102940274859529</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="23">
         <v>1</v>
       </c>
       <c r="J26" s="20">
@@ -7204,7 +7236,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>25</v>
       </c>
@@ -7232,8 +7264,8 @@
         <f t="shared" si="2"/>
         <v>6.1026855988868025</v>
       </c>
-      <c r="I27" s="4">
-        <v>0</v>
+      <c r="I27" s="22">
+        <v>1</v>
       </c>
       <c r="J27" s="20">
         <v>33</v>
@@ -7248,7 +7280,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>55</v>
       </c>
@@ -7276,7 +7308,7 @@
         <f t="shared" si="2"/>
         <v>-0.3010299956639812</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="23">
         <v>1</v>
       </c>
       <c r="J28" s="20">
@@ -7292,7 +7324,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>24</v>
       </c>
@@ -7320,7 +7352,7 @@
         <f t="shared" si="2"/>
         <v>4.7252866804528182</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="23">
         <v>1</v>
       </c>
       <c r="J29" s="20">
@@ -7336,7 +7368,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>15</v>
       </c>
@@ -7364,8 +7396,8 @@
         <f t="shared" si="2"/>
         <v>4.3663575746406371</v>
       </c>
-      <c r="I30" s="4">
-        <v>0</v>
+      <c r="I30" s="22">
+        <v>1</v>
       </c>
       <c r="J30" s="20">
         <v>4</v>
@@ -7380,7 +7412,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>8</v>
       </c>
@@ -7408,8 +7440,8 @@
         <f t="shared" si="2"/>
         <v>4.6071707622112212</v>
       </c>
-      <c r="I31" s="4">
-        <v>0</v>
+      <c r="I31" s="22">
+        <v>1</v>
       </c>
       <c r="J31" s="20">
         <v>120</v>
@@ -7424,7 +7456,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>45</v>
       </c>
@@ -7452,7 +7484,7 @@
         <f t="shared" si="2"/>
         <v>4.6674202628276964</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="23">
         <v>1</v>
       </c>
       <c r="J32" s="20">
@@ -7468,7 +7500,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>5</v>
       </c>
@@ -7496,7 +7528,7 @@
         <f t="shared" si="2"/>
         <v>4.3464214389045583</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="23">
         <v>1</v>
       </c>
       <c r="J33" s="20">
@@ -7512,7 +7544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>6</v>
       </c>
@@ -7540,7 +7572,7 @@
         <f t="shared" si="2"/>
         <v>4.5239479639070064</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="23">
         <v>1</v>
       </c>
       <c r="J34" s="20">
@@ -7556,7 +7588,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>10</v>
       </c>
@@ -7584,7 +7616,7 @@
         <f t="shared" si="2"/>
         <v>4.4601533441939782</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="23">
         <v>1</v>
       </c>
       <c r="J35" s="20">
@@ -7600,7 +7632,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>9</v>
       </c>
@@ -7628,7 +7660,7 @@
         <f t="shared" si="2"/>
         <v>4.4882051175083735</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="23">
         <v>1</v>
       </c>
       <c r="J36" s="20">
@@ -7644,7 +7676,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
         <v>6</v>
       </c>
@@ -7672,8 +7704,8 @@
         <f t="shared" si="2"/>
         <v>3.7482268015682458</v>
       </c>
-      <c r="I37" s="4">
-        <v>0</v>
+      <c r="I37" s="22">
+        <v>1</v>
       </c>
       <c r="J37" s="20">
         <v>2</v>
@@ -7688,7 +7720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <v>10</v>
       </c>
@@ -7716,7 +7748,7 @@
         <f t="shared" si="2"/>
         <v>4.760923593220955</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="23">
         <v>1</v>
       </c>
       <c r="J38" s="20">
@@ -7732,7 +7764,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>2</v>
       </c>
@@ -7760,7 +7792,7 @@
         <f t="shared" si="2"/>
         <v>4.3657593341542746</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="23">
         <v>1</v>
       </c>
       <c r="J39" s="20">
@@ -7776,7 +7808,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <v>11</v>
       </c>
@@ -7804,7 +7836,7 @@
         <f t="shared" si="2"/>
         <v>4.4760559276798366</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="23">
         <v>1</v>
       </c>
       <c r="J40" s="20">
@@ -7820,7 +7852,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
         <v>6</v>
       </c>
@@ -7848,8 +7880,8 @@
         <f t="shared" si="2"/>
         <v>4.845603388747227</v>
       </c>
-      <c r="I41" s="4">
-        <v>0</v>
+      <c r="I41" s="22">
+        <v>1</v>
       </c>
       <c r="J41" s="20">
         <v>10</v>
@@ -7864,7 +7896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
         <v>21</v>
       </c>
@@ -7892,7 +7924,7 @@
         <f t="shared" si="2"/>
         <v>5.2874288377706824</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="23">
         <v>1</v>
       </c>
       <c r="J42" s="20">
@@ -7908,7 +7940,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <v>37</v>
       </c>
@@ -7936,7 +7968,7 @@
         <f t="shared" si="2"/>
         <v>4.3785341644482578</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="23">
         <v>1</v>
       </c>
       <c r="J43" s="20">
@@ -7952,7 +7984,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18">
         <v>24</v>
       </c>
@@ -7980,7 +8012,7 @@
         <f t="shared" si="2"/>
         <v>5.4140695768310811</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="22">
         <v>0</v>
       </c>
       <c r="J44" s="20">
@@ -7996,7 +8028,7 @@
         <v>3529</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <v>22</v>
       </c>
@@ -8024,7 +8056,7 @@
         <f t="shared" si="2"/>
         <v>4.7776623940582317</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="23">
         <v>1</v>
       </c>
       <c r="J45" s="20">
@@ -8040,7 +8072,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18">
         <v>8</v>
       </c>
@@ -8068,8 +8100,8 @@
         <f t="shared" si="2"/>
         <v>5.003432526106006</v>
       </c>
-      <c r="I46" s="4">
-        <v>0</v>
+      <c r="I46" s="22">
+        <v>1</v>
       </c>
       <c r="J46" s="20">
         <v>164</v>
@@ -8084,7 +8116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
         <v>19</v>
       </c>
@@ -8112,7 +8144,7 @@
         <f t="shared" si="2"/>
         <v>3.9803897444900089</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="23">
         <v>1</v>
       </c>
       <c r="J47" s="20">
@@ -8128,7 +8160,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>58</v>
       </c>
@@ -8156,7 +8188,7 @@
         <f t="shared" si="2"/>
         <v>5.7749718242698425</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="23">
         <v>1</v>
       </c>
       <c r="J48" s="20">
@@ -8172,7 +8204,7 @@
         <v>2827</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>26</v>
       </c>
@@ -8200,7 +8232,7 @@
         <f t="shared" si="2"/>
         <v>4.3102364789359759</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="23">
         <v>1</v>
       </c>
       <c r="J49" s="20">
@@ -8216,7 +8248,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>17</v>
       </c>
@@ -8244,7 +8276,7 @@
         <f t="shared" si="2"/>
         <v>4.9804011031969866</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="23">
         <v>1</v>
       </c>
       <c r="J50" s="20">
@@ -8260,7 +8292,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>4</v>
       </c>
@@ -8288,7 +8320,7 @@
         <f t="shared" si="2"/>
         <v>4.0899580709519201</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="23">
         <v>1</v>
       </c>
       <c r="J51" s="20">
@@ -8304,7 +8336,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
         <v>8</v>
       </c>
@@ -8332,8 +8364,8 @@
         <f t="shared" si="2"/>
         <v>4.9028157520357247</v>
       </c>
-      <c r="I52" s="4">
-        <v>0</v>
+      <c r="I52" s="22">
+        <v>1</v>
       </c>
       <c r="J52" s="20">
         <v>22</v>
@@ -8348,7 +8380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
         <v>16</v>
       </c>
@@ -8376,7 +8408,7 @@
         <f t="shared" si="2"/>
         <v>4.8401217840028989</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I53" s="23">
         <v>1</v>
       </c>
       <c r="J53" s="20">
@@ -8392,7 +8424,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18">
         <v>13</v>
       </c>
@@ -8420,8 +8452,8 @@
         <f t="shared" si="2"/>
         <v>5.2003428865259815</v>
       </c>
-      <c r="I54" s="4">
-        <v>0</v>
+      <c r="I54" s="22">
+        <v>1</v>
       </c>
       <c r="J54" s="20">
         <v>0</v>
@@ -8436,7 +8468,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
         <v>33</v>
       </c>
@@ -8464,7 +8496,7 @@
         <f t="shared" si="2"/>
         <v>5.3508747724047376</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="23">
         <v>1</v>
       </c>
       <c r="J55" s="20">
@@ -8480,7 +8512,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="18">
         <v>34</v>
       </c>
@@ -8508,8 +8540,8 @@
         <f t="shared" si="2"/>
         <v>5.1851411043137219</v>
       </c>
-      <c r="I56" s="4">
-        <v>0</v>
+      <c r="I56" s="22">
+        <v>1</v>
       </c>
       <c r="J56" s="20">
         <v>596</v>
@@ -8524,7 +8556,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
         <v>35</v>
       </c>
@@ -8552,7 +8584,7 @@
         <f t="shared" si="2"/>
         <v>4.4269258390523651</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I57" s="23">
         <v>1</v>
       </c>
       <c r="J57" s="20">
@@ -8568,7 +8600,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="18">
         <v>15</v>
       </c>
@@ -8596,7 +8628,7 @@
         <f t="shared" si="2"/>
         <v>4.9622438125835275</v>
       </c>
-      <c r="I58" s="4">
+      <c r="I58" s="22">
         <v>0</v>
       </c>
       <c r="J58" s="20">
@@ -8612,7 +8644,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="18">
         <v>6</v>
       </c>
@@ -8640,7 +8672,7 @@
         <f t="shared" si="2"/>
         <v>5.3010636521821555</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="23">
         <v>1</v>
       </c>
       <c r="J59" s="20">
@@ -8656,7 +8688,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="18">
         <v>14</v>
       </c>
@@ -8684,7 +8716,7 @@
         <f t="shared" si="2"/>
         <v>5.2955374129959223</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="23">
         <v>1</v>
       </c>
       <c r="J60" s="20">
@@ -8709,7 +8741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CACCE3-8AE3-42A4-969F-26816956BFEE}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11001,4 +11033,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FD4CBA-8EF6-445D-8AFB-5700FF5E2E5A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>